--- a/data/trans_camb/P30_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P30_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,94</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,5</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>-4,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,9</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,77; 6,93</t>
+          <t>-6,75; 8,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 2,44</t>
+          <t>-5,34; 8,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 15,24</t>
+          <t>-5,49; 13,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 5,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 0,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 11,91</t>
+          <t>-7,66; 6,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 4,19</t>
+          <t>-11,54; 1,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-11,69; -0,15</t>
+          <t>-6,55; 13,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 10,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-5,04; 5,9</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,7; 3,18</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,47; 10,92</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,05%</t>
+          <t>10,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-29,08%</t>
+          <t>19,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>31,53%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-29,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>-30,5%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-29,42%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-11,35%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>20,84%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,39; 53,94</t>
+          <t>-38,86; 121,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-60,45; 16,88</t>
+          <t>-32,68; 116,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 109,36</t>
+          <t>-36,39; 163,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 52,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,43; 7,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 102,34</t>
+          <t>-38,18; 64,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,41; 29,57</t>
+          <t>-57,5; 11,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,47; -1,51</t>
+          <t>-36,31; 128,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,05; 79,79</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-29,32; 53,89</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-37,03; 30,34</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-22,5; 95,21</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,46</t>
+          <t>2,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,08</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>-0,72</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 9,31</t>
+          <t>-4,64; 9,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 9,02</t>
+          <t>-5,19; 8,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 10,61</t>
+          <t>-5,63; 10,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 8,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 5,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,41; 13,72</t>
+          <t>-2,87; 9,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,08; 7,55</t>
+          <t>-6,31; 6,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,95</t>
+          <t>-7,6; 5,7</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 10,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 7,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,39; 6,16</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 5,8</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,81%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>8,7%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,9%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>-3,35%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>26,78%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12,53%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,17%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 46,46</t>
+          <t>-16,94; 47,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-11,65; 43,74</t>
+          <t>-18,39; 42,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 52,54</t>
+          <t>-20,36; 52,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 48,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,45; 30,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,82; 75,76</t>
+          <t>-11,36; 54,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 36,3</t>
+          <t>-24,33; 35,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 29,66</t>
+          <t>-30,36; 31,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,72; 47,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-6,44; 35,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-12,95; 31,06</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-17,61; 28,81</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>2,57</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,39</t>
+          <t>4,93</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,47</t>
+          <t>6,18</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>9,07</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,18</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>4,44</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 8,17</t>
+          <t>-9,33; 6,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 8,43</t>
+          <t>-9,73; 5,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 12,63</t>
+          <t>-6,46; 11,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 8,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 7,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 20,14</t>
+          <t>-0,81; 9,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,87</t>
+          <t>-2,41; 7,39</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 6,44</t>
+          <t>0,49; 11,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 13,95</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 6,59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 5,02</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,92; 9,86</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>-3,18%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,14%</t>
+          <t>-5,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>11,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>102,2%</t>
+          <t>37,83%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>19,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,68%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>57,49%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 51,82</t>
+          <t>-33,37; 38,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 56,53</t>
+          <t>-33,43; 29,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 78,89</t>
+          <t>-23,67; 62,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 79,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 68,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>43,02; 180,55</t>
+          <t>-5,13; 97,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 52,06</t>
+          <t>-15,1; 72,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 44,75</t>
+          <t>-0,22; 117,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>20,1; 100,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-13,91; 45,36</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-20,61; 34,65</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 65,42</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>3,87</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>9,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,16</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,6</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2,42</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,49</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 5,71</t>
+          <t>-3,01; 11,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 5,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,92; 9,19</t>
+          <t>2,74; 15,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 5,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,05</t>
+          <t>-4,87; 6,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 4,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 2,88</t>
+          <t>-1,62; 8,9</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,92; 6,85</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,99; 10,7</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>20,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>23,35%</t>
+          <t>48,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>4,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>19,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>13,21%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>35,38%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,72; 29,68</t>
+          <t>-14,42; 65,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,8; 26,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,01; 50,21</t>
+          <t>12,79; 94,74</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 37,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 18,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>24,7; 77,27</t>
+          <t>-24,91; 39,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 25,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 16,04</t>
+          <t>-10,06; 58,65</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,72; 52,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; 41,87</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>9,61; 64,06</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>2,55</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,58</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,64; 6,12</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,83; 5,81</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,58; 8,94</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,39; 5,39</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 2,71</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 5,68</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,18; 4,54</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 3,12</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,96; 6,21</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>9,23%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23,43%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14,65%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-2,18%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>11,79%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3,59%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>18,93%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-7,56; 33,11</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-8,61; 30,94</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 47,16</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 34,74</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; 16,87</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-3,76; 35,88</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-1,34; 25,71</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-10,2; 17,92</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 34,85</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
